--- a/Data_Blending.xlsx
+++ b/Data_Blending.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayool\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayool\de_skills\btc_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2279F5-4590-4819-858F-4BD42DF33AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CEDE0A-46B3-4919-8CF3-8F13A0C354E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="5370" windowWidth="9600" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>NAME</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>EMPID</t>
+  </si>
+  <si>
+    <t>ssh</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +691,17 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
